--- a/Hardware/PCB Design/Fabrication/2014_10_06/BOM.xlsx
+++ b/Hardware/PCB Design/Fabrication/2014_10_06/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tentacle Module" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="176">
   <si>
     <t>Qty</t>
   </si>
@@ -619,9 +619,6 @@
     <t>U$2</t>
   </si>
   <si>
-    <t>2N7002KCT-ND</t>
-  </si>
-  <si>
     <t>568-2259-1-ND</t>
   </si>
   <si>
@@ -677,6 +674,15 @@
   </si>
   <si>
     <t>609-3485-1-N, 29400E-01-20-ND</t>
+  </si>
+  <si>
+    <t>P14417-ND</t>
+  </si>
+  <si>
+    <t>609-1053-ND, 609-1046-ND</t>
+  </si>
+  <si>
+    <t>2N7002K-T1-E3CT-ND</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1126,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1294,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,7 +1314,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,8 +1474,8 @@
       <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
-        <v>89</v>
+      <c r="G15" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,7 +1544,7 @@
         <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1561,7 +1567,7 @@
         <v>68</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1616,10 +1622,10 @@
         <v>65</v>
       </c>
       <c r="I41" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" t="s">
         <v>161</v>
-      </c>
-      <c r="J41" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1820,7 +1826,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
         <v>165</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1970,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
         <v>168</v>
-      </c>
-      <c r="D7" t="s">
-        <v>169</v>
       </c>
       <c r="E7" t="s">
         <v>139</v>
@@ -2005,7 +2011,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2025,7 +2031,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,17 +2224,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
@@ -2279,8 +2286,8 @@
       <c r="F2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" t="s">
-        <v>154</v>
+      <c r="G2" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,7 +2401,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2403,13 +2410,13 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2501,7 +2508,7 @@
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,7 +2548,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
@@ -2570,7 +2577,7 @@
         <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2593,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2616,7 +2623,7 @@
         <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2693,13 +2700,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
         <v>165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
       </c>
       <c r="E21" t="s">
         <v>110</v>
@@ -2731,18 +2738,18 @@
         <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
